--- a/quizzes/1. Cau hoi Chuong 1_BH va Rui ro trong BH.xlsx
+++ b/quizzes/1. Cau hoi Chuong 1_BH va Rui ro trong BH.xlsx
@@ -590,7 +590,11 @@
           <t>Rủi ro ngẫu nhiên là gì?</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Bất ngờ</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>Không lường trước được về không gian, thời gian, cũng như mức độ nghiêm trọng.</t>
